--- a/calc_power_consumption.xlsx
+++ b/calc_power_consumption.xlsx
@@ -60,9 +60,6 @@
     <t>red leds</t>
   </si>
   <si>
-    <t>5 leds, 12 sec/step</t>
-  </si>
-  <si>
     <t>mA</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>oder in h:</t>
+  </si>
+  <si>
+    <t>5 leds, 12 sec/step, one cycle one minute</t>
   </si>
 </sst>
 </file>
@@ -255,6 +255,42 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -297,7 +333,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -306,6 +343,10 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -323,8 +364,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -335,8 +375,17 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -354,30 +403,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -405,59 +430,35 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -494,53 +495,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A6:B10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A6:B10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A6:B10"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="scenario" dataDxfId="28"/>
-    <tableColumn id="2" name="mA" dataDxfId="27"/>
+    <tableColumn id="1" name="scenario" dataDxfId="26"/>
+    <tableColumn id="2" name="mA" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A12:C17" totalsRowCount="1" headerRowDxfId="22" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A12:C17" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Comment" dataDxfId="6" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="avg. Consumption mAs" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Comment" dataDxfId="21" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="avg. Consumption mAs" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="F16:L24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="F16:L24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="F16:L24"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="start time, 12s interval" dataDxfId="21"/>
-    <tableColumn id="2" name="Spalte1" dataDxfId="20"/>
-    <tableColumn id="3" name="Spalte2" dataDxfId="19"/>
-    <tableColumn id="4" name="duration sec" dataDxfId="18"/>
-    <tableColumn id="5" name="Spalte3" dataDxfId="17"/>
-    <tableColumn id="6" name="Spalte4" dataDxfId="16"/>
-    <tableColumn id="7" name="Spalte5" dataDxfId="15"/>
+    <tableColumn id="1" name="start time, 12s interval" dataDxfId="17"/>
+    <tableColumn id="2" name="Spalte1" dataDxfId="16"/>
+    <tableColumn id="3" name="Spalte2" dataDxfId="15"/>
+    <tableColumn id="4" name="duration sec" dataDxfId="14"/>
+    <tableColumn id="5" name="Spalte3" dataDxfId="13"/>
+    <tableColumn id="6" name="Spalte4" dataDxfId="12"/>
+    <tableColumn id="7" name="Spalte5" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="G2:K14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="G2:K14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="G2:K14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Step = #led on" dataDxfId="4"/>
-    <tableColumn id="2" name="mA" dataDxfId="3"/>
-    <tableColumn id="3" name="Diff" dataDxfId="2"/>
-    <tableColumn id="4" name="avg" dataDxfId="0"/>
-    <tableColumn id="5" name="Spalte1" dataDxfId="1"/>
+    <tableColumn id="1" name="Step = #led on" dataDxfId="7"/>
+    <tableColumn id="2" name="mA" dataDxfId="6"/>
+    <tableColumn id="3" name="Diff" dataDxfId="5"/>
+    <tableColumn id="4" name="avg" dataDxfId="4"/>
+    <tableColumn id="5" name="Spalte1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -836,7 +837,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,19 +866,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -885,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8">
         <v>0.78</v>
@@ -902,7 +903,7 @@
         <v>4.13</v>
       </c>
       <c r="I4" s="9">
-        <f>H4-H3</f>
+        <f t="shared" ref="I4:I12" si="0">H4-H3</f>
         <v>3.3499999999999996</v>
       </c>
       <c r="J4" s="9">
@@ -910,7 +911,7 @@
         <v>3.2559999999999993</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -921,7 +922,7 @@
         <v>7.43</v>
       </c>
       <c r="I5" s="8">
-        <f>H5-H4</f>
+        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="J5" s="8"/>
@@ -929,10 +930,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
@@ -941,7 +942,7 @@
         <v>10.68</v>
       </c>
       <c r="I6" s="9">
-        <f>H6-H5</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
       <c r="J6" s="9"/>
@@ -962,7 +963,7 @@
         <v>13.34</v>
       </c>
       <c r="I7" s="8">
-        <f>H7-H6</f>
+        <f t="shared" si="0"/>
         <v>2.66</v>
       </c>
       <c r="J7" s="8"/>
@@ -983,7 +984,7 @@
         <v>17.059999999999999</v>
       </c>
       <c r="I8" s="9">
-        <f>H8-H7</f>
+        <f t="shared" si="0"/>
         <v>3.7199999999999989</v>
       </c>
       <c r="J8" s="9"/>
@@ -1004,7 +1005,7 @@
         <v>20.170000000000002</v>
       </c>
       <c r="I9" s="8">
-        <f>H9-H8</f>
+        <f t="shared" si="0"/>
         <v>3.110000000000003</v>
       </c>
       <c r="J9" s="8">
@@ -1012,7 +1013,7 @@
         <v>3.0400000000000005</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1030,7 +1031,7 @@
         <v>23.2</v>
       </c>
       <c r="I10" s="9">
-        <f>H10-H9</f>
+        <f t="shared" si="0"/>
         <v>3.0299999999999976</v>
       </c>
       <c r="J10" s="9"/>
@@ -1044,7 +1045,7 @@
         <v>26.18</v>
       </c>
       <c r="I11" s="8">
-        <f>H11-H10</f>
+        <f t="shared" si="0"/>
         <v>2.9800000000000004</v>
       </c>
       <c r="J11" s="8"/>
@@ -1052,13 +1053,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5">
         <v>9</v>
@@ -1067,7 +1068,7 @@
         <v>29.09</v>
       </c>
       <c r="I12" s="9">
-        <f>H12-H11</f>
+        <f t="shared" si="0"/>
         <v>2.91</v>
       </c>
       <c r="J12" s="9">
@@ -1075,7 +1076,7 @@
         <v>2.91</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1114,7 +1115,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -1123,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7">
         <f>K24</f>
@@ -1132,47 +1133,47 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <f>B10</f>
         <v>0.49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
         <f>SUBTOTAL(109,Tabelle3[avg. Consumption mAs])</f>
         <v>12.988999999999997</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1189,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="7">
-        <f>I18*$B$7 *(1/2+H18)</f>
+        <f t="shared" ref="J18:J23" si="1">I18*$B$7 *(1/2+H18)</f>
         <v>19.535999999999994</v>
       </c>
       <c r="K18" s="7"/>
@@ -1208,17 +1209,17 @@
         <v>12</v>
       </c>
       <c r="J19" s="7">
-        <f>I19*$B$7 *(1/2+H19)</f>
+        <f t="shared" si="1"/>
         <v>58.607999999999983</v>
       </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="7">
         <f>12000/13</f>
@@ -1237,14 +1238,14 @@
         <v>12</v>
       </c>
       <c r="J20" s="7">
-        <f>I20*$B$7 *(1/2+H20)</f>
+        <f t="shared" si="1"/>
         <v>97.679999999999978</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="11">
         <f>C20/60</f>
@@ -1263,14 +1264,14 @@
         <v>12</v>
       </c>
       <c r="J21" s="7">
-        <f>I21*$B$7 *(1/2+H21)</f>
+        <f t="shared" si="1"/>
         <v>136.75199999999995</v>
       </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>48</v>
@@ -1285,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="7">
-        <f>I22*$B$7 *(1/2+H22)</f>
+        <f t="shared" si="1"/>
         <v>175.82399999999996</v>
       </c>
       <c r="K22" s="7"/>
@@ -1304,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="7">
-        <f>I23*$B$7 *(1/2+H23)</f>
+        <f t="shared" si="1"/>
         <v>214.89599999999993</v>
       </c>
       <c r="K23" s="7"/>
@@ -1319,7 +1320,7 @@
         <v>11.721599999999997</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/calc_power_consumption.xlsx
+++ b/calc_power_consumption.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Configuration values:</t>
   </si>
@@ -130,15 +130,6 @@
   </si>
   <si>
     <t>CR2023, 200 mAh</t>
-  </si>
-  <si>
-    <t>bei avg. 13 mAs läuft der Timer (m):</t>
-  </si>
-  <si>
-    <t>200 mAh =  12000 mAmin</t>
-  </si>
-  <si>
-    <t>oder in h:</t>
   </si>
   <si>
     <t>5 leds, 12 sec/step, one cycle one minute</t>
@@ -214,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -249,21 +240,14 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -461,6 +445,16 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -509,39 +503,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A12:C17" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="Comment" dataDxfId="21" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="avg. Consumption mAs" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" name="Comment" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" name="avg. Consumption mAs" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="F16:L24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="F16:L24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="F16:L24"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="start time, 12s interval" dataDxfId="17"/>
-    <tableColumn id="2" name="Spalte1" dataDxfId="16"/>
-    <tableColumn id="3" name="Spalte2" dataDxfId="15"/>
-    <tableColumn id="4" name="duration sec" dataDxfId="14"/>
-    <tableColumn id="5" name="Spalte3" dataDxfId="13"/>
-    <tableColumn id="6" name="Spalte4" dataDxfId="12"/>
-    <tableColumn id="7" name="Spalte5" dataDxfId="11"/>
+    <tableColumn id="1" name="start time, 12s interval" dataDxfId="14"/>
+    <tableColumn id="2" name="Spalte1" dataDxfId="13"/>
+    <tableColumn id="3" name="Spalte2" dataDxfId="12"/>
+    <tableColumn id="4" name="duration sec" dataDxfId="11"/>
+    <tableColumn id="5" name="Spalte3" dataDxfId="10"/>
+    <tableColumn id="6" name="Spalte4" dataDxfId="9"/>
+    <tableColumn id="7" name="Spalte5" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="G2:K14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="G2:K14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="G2:K14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Step = #led on" dataDxfId="7"/>
-    <tableColumn id="2" name="mA" dataDxfId="6"/>
-    <tableColumn id="3" name="Diff" dataDxfId="5"/>
-    <tableColumn id="4" name="avg" dataDxfId="4"/>
-    <tableColumn id="5" name="Spalte1" dataDxfId="3"/>
+    <tableColumn id="1" name="Step = #led on" dataDxfId="4"/>
+    <tableColumn id="2" name="mA" dataDxfId="3"/>
+    <tableColumn id="3" name="Diff" dataDxfId="2"/>
+    <tableColumn id="4" name="avg" dataDxfId="1"/>
+    <tableColumn id="5" name="Spalte1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,7 +831,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,11 +1118,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7">
         <f>K24</f>
-        <v>11.721599999999997</v>
+        <v>8.139999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1167,7 +1161,7 @@
       </c>
       <c r="C17" s="7">
         <f>SUBTOTAL(109,Tabelle3[avg. Consumption mAs])</f>
-        <v>12.988999999999997</v>
+        <v>9.4073999999999973</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -1193,7 +1187,10 @@
         <f t="shared" ref="J18:J23" si="1">I18*$B$7 *(1/2+H18)</f>
         <v>19.535999999999994</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="7">
+        <f>Tabelle4[[#This Row],[Spalte3]]/12</f>
+        <v>1.6279999999999994</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
@@ -1212,18 +1209,19 @@
         <f t="shared" si="1"/>
         <v>58.607999999999983</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7">
+        <f>Tabelle4[[#This Row],[Spalte3]]/12</f>
+        <v>4.8839999999999986</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7">
-        <f>12000/13</f>
-        <v>923.07692307692309</v>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11">
+        <f>200/9.41</f>
+        <v>21.253985122210413</v>
       </c>
       <c r="F20" s="1">
         <v>24</v>
@@ -1241,16 +1239,12 @@
         <f t="shared" si="1"/>
         <v>97.679999999999978</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7">
+        <f>Tabelle4[[#This Row],[Spalte3]]/12</f>
+        <v>8.1399999999999988</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11">
-        <f>C20/60</f>
-        <v>15.384615384615385</v>
-      </c>
       <c r="F21" s="1">
         <v>36</v>
       </c>
@@ -1267,12 +1261,12 @@
         <f t="shared" si="1"/>
         <v>136.75199999999995</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7">
+        <f>Tabelle4[[#This Row],[Spalte3]]/12</f>
+        <v>11.395999999999995</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="1">
         <v>48</v>
       </c>
@@ -1289,35 +1283,26 @@
         <f t="shared" si="1"/>
         <v>175.82399999999996</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7">
+        <f>Tabelle4[[#This Row],[Spalte3]]/12</f>
+        <v>14.651999999999996</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23" s="1">
         <v>60</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>5</v>
-      </c>
-      <c r="I23" s="1">
-        <v>12</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="1"/>
-        <v>214.89599999999993</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J24" s="11">
         <f>SUM(J18:J23)</f>
-        <v>703.29599999999982</v>
+        <v>488.39999999999986</v>
       </c>
       <c r="K24" s="11">
         <f>J24/60</f>
-        <v>11.721599999999997</v>
+        <v>8.139999999999997</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>21</v>
